--- a/bing_averages.xlsx
+++ b/bing_averages.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1360" windowWidth="10000" windowHeight="12000" tabRatio="500"/>
+    <workbookView xWindow="14700" yWindow="2780" windowWidth="10000" windowHeight="12000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,6 +616,12 @@
         <v>6.3</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>43.499592200000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
